--- a/www/IndicatorsPerCountry/SierraLeone_GDPperCapita_TerritorialRef_1961_2012_CCode_694.xlsx
+++ b/www/IndicatorsPerCountry/SierraLeone_GDPperCapita_TerritorialRef_1961_2012_CCode_694.xlsx
@@ -237,13 +237,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/SierraLeone_GDPperCapita_TerritorialRef_1961_2012_CCode_694.xlsx
+++ b/www/IndicatorsPerCountry/SierraLeone_GDPperCapita_TerritorialRef_1961_2012_CCode_694.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="83">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,178 +36,196 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>656</t>
-  </si>
-  <si>
-    <t>685</t>
-  </si>
-  <si>
-    <t>697</t>
-  </si>
-  <si>
-    <t>714</t>
-  </si>
-  <si>
-    <t>744</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>841</t>
-  </si>
-  <si>
-    <t>856</t>
-  </si>
-  <si>
-    <t>858</t>
-  </si>
-  <si>
-    <t>884</t>
-  </si>
-  <si>
-    <t>886</t>
-  </si>
-  <si>
-    <t>883</t>
-  </si>
-  <si>
-    <t>932</t>
-  </si>
-  <si>
-    <t>976</t>
-  </si>
-  <si>
-    <t>955</t>
-  </si>
-  <si>
-    <t>1032</t>
+    <t>902</t>
+  </si>
+  <si>
+    <t>942</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>1093</t>
   </si>
   <si>
     <t>1109</t>
   </si>
   <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>1072</t>
-  </si>
-  <si>
-    <t>1087</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>1070</t>
-  </si>
-  <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>1048</t>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>1162</t>
-  </si>
-  <si>
     <t>1157</t>
   </si>
   <si>
-    <t>1117</t>
-  </si>
-  <si>
-    <t>1108</t>
-  </si>
-  <si>
-    <t>1054</t>
-  </si>
-  <si>
-    <t>995</t>
-  </si>
-  <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>1025</t>
-  </si>
-  <si>
-    <t>1025.68956033</t>
-  </si>
-  <si>
-    <t>918.960842895</t>
-  </si>
-  <si>
-    <t>844.880601621</t>
-  </si>
-  <si>
-    <t>855.084733455</t>
-  </si>
-  <si>
-    <t>865.084382894</t>
-  </si>
-  <si>
-    <t>766.055694809</t>
-  </si>
-  <si>
-    <t>568.711508489</t>
-  </si>
-  <si>
-    <t>454.32347788</t>
-  </si>
-  <si>
-    <t>441.489121866</t>
-  </si>
-  <si>
-    <t>403.530755992</t>
-  </si>
-  <si>
-    <t>409.293687013</t>
-  </si>
-  <si>
-    <t>457.630726994</t>
-  </si>
-  <si>
-    <t>553.166514863</t>
-  </si>
-  <si>
-    <t>572.274109246</t>
-  </si>
-  <si>
-    <t>595.931876274</t>
-  </si>
-  <si>
-    <t>623.544445884</t>
-  </si>
-  <si>
-    <t>640.315068277</t>
-  </si>
-  <si>
-    <t>665.760889441</t>
-  </si>
-  <si>
-    <t>686.442436218</t>
+    <t>1176</t>
+  </si>
+  <si>
+    <t>1181</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>1282</t>
+  </si>
+  <si>
+    <t>1342</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>1553</t>
+  </si>
+  <si>
+    <t>1535</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>1551</t>
+  </si>
+  <si>
+    <t>1511</t>
+  </si>
+  <si>
+    <t>1495</t>
+  </si>
+  <si>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>1584</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>1624</t>
+  </si>
+  <si>
+    <t>1626</t>
+  </si>
+  <si>
+    <t>1642</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>1467.38879372737</t>
+  </si>
+  <si>
+    <t>1354.96819689212</t>
+  </si>
+  <si>
+    <t>1405.16280529918</t>
+  </si>
+  <si>
+    <t>1500.20920326603</t>
+  </si>
+  <si>
+    <t>1383.10812635823</t>
+  </si>
+  <si>
+    <t>1060.56242298435</t>
+  </si>
+  <si>
+    <t>885.298443424568</t>
+  </si>
+  <si>
+    <t>882.729341181711</t>
+  </si>
+  <si>
+    <t>814.123267008335</t>
+  </si>
+  <si>
+    <t>828.793864301684</t>
+  </si>
+  <si>
+    <t>923.045794079924</t>
+  </si>
+  <si>
+    <t>1101.75037870797</t>
+  </si>
+  <si>
+    <t>1156.51911986097</t>
+  </si>
+  <si>
+    <t>1197.15292990557</t>
+  </si>
+  <si>
+    <t>1223.70153268588</t>
+  </si>
+  <si>
+    <t>1247.25275616654</t>
+  </si>
+  <si>
+    <t>1320.75766231695</t>
+  </si>
+  <si>
+    <t>1363.48755538923</t>
+  </si>
+  <si>
+    <t>1378.35793886063</t>
+  </si>
+  <si>
+    <t>1421.15205985533</t>
+  </si>
+  <si>
+    <t>1479</t>
+  </si>
+  <si>
+    <t>1665</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1563</t>
+  </si>
+  <si>
+    <t>1619</t>
   </si>
   <si>
     <t>Description</t>
@@ -699,7 +717,7 @@
         <v>1972.0</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -716,7 +734,7 @@
         <v>1973.0</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
@@ -733,7 +751,7 @@
         <v>1974.0</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -750,7 +768,7 @@
         <v>1975.0</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -767,7 +785,7 @@
         <v>1976.0</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -784,7 +802,7 @@
         <v>1977.0</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -801,7 +819,7 @@
         <v>1978.0</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -818,7 +836,7 @@
         <v>1979.0</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -835,7 +853,7 @@
         <v>1980.0</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -852,7 +870,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -869,7 +887,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -886,7 +904,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -903,7 +921,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
@@ -920,7 +938,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
@@ -937,7 +955,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
@@ -954,7 +972,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
@@ -971,7 +989,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
@@ -988,7 +1006,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
@@ -1005,7 +1023,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
@@ -1022,7 +1040,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
@@ -1039,7 +1057,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -1056,7 +1074,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
@@ -1073,7 +1091,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
@@ -1090,7 +1108,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
@@ -1107,7 +1125,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1142,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
@@ -1141,7 +1159,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
@@ -1158,7 +1176,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
@@ -1175,7 +1193,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
@@ -1192,7 +1210,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
@@ -1209,7 +1227,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
@@ -1226,7 +1244,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
@@ -1243,7 +1261,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
@@ -1260,7 +1278,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
@@ -1277,7 +1295,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
@@ -1294,7 +1312,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60">
@@ -1311,7 +1329,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>694.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>694.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>694.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>694.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>694.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>694.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>694.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>694.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1329,50 +1483,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
